--- a/Analyses/CAMspiracy/t1_segmentation/outputs/IDs_t2.xlsx
+++ b/Analyses/CAMspiracy/t1_segmentation/outputs/IDs_t2.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\livmats studies\Analyses\CAMspiracy\t1_segmentation\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FA7DC1-079E-4899-B9B1-905902B00FD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -872,23 +880,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -903,22 +922,336 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72:D141"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -929,1967 +1262,1967 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>143</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>143</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>143</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>143</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>143</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>143</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>143</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>143</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>143</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>143</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>143</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>143</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>143</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>143</v>
       </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>143</v>
       </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>143</v>
       </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>143</v>
       </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>143</v>
       </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>143</v>
       </c>
-      <c r="C21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>143</v>
       </c>
-      <c r="C22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>143</v>
       </c>
-      <c r="C23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>143</v>
       </c>
-      <c r="C24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>143</v>
       </c>
-      <c r="C25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>143</v>
       </c>
-      <c r="C26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>143</v>
       </c>
-      <c r="C27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>143</v>
       </c>
-      <c r="C28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>143</v>
       </c>
-      <c r="C29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>143</v>
       </c>
-      <c r="C30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>143</v>
       </c>
-      <c r="C31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>143</v>
       </c>
-      <c r="C32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>143</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>143</v>
       </c>
-      <c r="C34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>143</v>
       </c>
-      <c r="C35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>143</v>
       </c>
-      <c r="C36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>143</v>
       </c>
-      <c r="C38" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>143</v>
       </c>
-      <c r="C39" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>143</v>
       </c>
-      <c r="C40" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>143</v>
       </c>
-      <c r="C41" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>143</v>
       </c>
-      <c r="C42" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>143</v>
       </c>
-      <c r="C43" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>143</v>
       </c>
-      <c r="C44" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>143</v>
       </c>
-      <c r="C45" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>143</v>
       </c>
-      <c r="C46" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>143</v>
       </c>
-      <c r="C47" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
       </c>
-      <c r="C48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>143</v>
       </c>
-      <c r="C49" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>143</v>
       </c>
-      <c r="C50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>143</v>
       </c>
-      <c r="C51" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>143</v>
       </c>
-      <c r="C52" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
         <v>143</v>
       </c>
-      <c r="C53" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>143</v>
       </c>
-      <c r="C54" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>143</v>
       </c>
-      <c r="C55" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="C56" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>143</v>
       </c>
-      <c r="C57" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>143</v>
       </c>
-      <c r="C58" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
       </c>
-      <c r="C59" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>143</v>
       </c>
-      <c r="C60" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>143</v>
       </c>
-      <c r="C61" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>143</v>
       </c>
-      <c r="C62" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>143</v>
       </c>
-      <c r="C63" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
       </c>
-      <c r="C64" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>143</v>
       </c>
-      <c r="C65" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>143</v>
       </c>
-      <c r="C66" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>143</v>
       </c>
-      <c r="C67" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>143</v>
       </c>
-      <c r="C68" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>143</v>
       </c>
-      <c r="C69" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
         <v>143</v>
       </c>
-      <c r="C70" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
         <v>143</v>
       </c>
-      <c r="C71" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
         <v>144</v>
       </c>
-      <c r="C72" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>144</v>
       </c>
-      <c r="C73" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
         <v>144</v>
       </c>
-      <c r="C74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
         <v>144</v>
       </c>
-      <c r="C75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
         <v>144</v>
       </c>
-      <c r="C76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
         <v>144</v>
       </c>
-      <c r="C77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>144</v>
       </c>
-      <c r="C78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
         <v>144</v>
       </c>
-      <c r="C79" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>144</v>
       </c>
-      <c r="C80" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>144</v>
       </c>
-      <c r="C81" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>144</v>
       </c>
-      <c r="C82" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>144</v>
       </c>
-      <c r="C83" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>144</v>
       </c>
-      <c r="C84" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>144</v>
       </c>
-      <c r="C85" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>144</v>
       </c>
-      <c r="C86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
         <v>144</v>
       </c>
-      <c r="C87" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>144</v>
       </c>
-      <c r="C88" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>144</v>
       </c>
-      <c r="C89" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>144</v>
       </c>
-      <c r="C90" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>144</v>
       </c>
-      <c r="C91" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
         <v>144</v>
       </c>
-      <c r="C92" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93" t="s">
         <v>144</v>
       </c>
-      <c r="C93" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
         <v>144</v>
       </c>
-      <c r="C94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
       <c r="B95" t="s">
         <v>144</v>
       </c>
-      <c r="C95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96" t="s">
         <v>144</v>
       </c>
-      <c r="C96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97" t="s">
         <v>144</v>
       </c>
-      <c r="C97" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98" t="s">
         <v>144</v>
       </c>
-      <c r="C98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99" t="s">
         <v>144</v>
       </c>
-      <c r="C99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100" t="s">
         <v>144</v>
       </c>
-      <c r="C100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101" t="s">
         <v>144</v>
       </c>
-      <c r="C101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102" t="s">
         <v>144</v>
       </c>
-      <c r="C102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103" t="s">
         <v>144</v>
       </c>
-      <c r="C103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104" t="s">
         <v>144</v>
       </c>
-      <c r="C104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105" t="s">
         <v>144</v>
       </c>
-      <c r="C105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106" t="s">
         <v>144</v>
       </c>
-      <c r="C106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
       <c r="B107" t="s">
         <v>144</v>
       </c>
-      <c r="C107" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
       <c r="B108" t="s">
         <v>144</v>
       </c>
-      <c r="C108" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
       <c r="B109" t="s">
         <v>144</v>
       </c>
-      <c r="C109" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
       <c r="B110" t="s">
         <v>144</v>
       </c>
-      <c r="C110" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
       <c r="B111" t="s">
         <v>144</v>
       </c>
-      <c r="C111" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
       <c r="B112" t="s">
         <v>144</v>
       </c>
-      <c r="C112" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
       <c r="B113" t="s">
         <v>144</v>
       </c>
-      <c r="C113" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
       <c r="B114" t="s">
         <v>144</v>
       </c>
-      <c r="C114" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
       <c r="B115" t="s">
         <v>144</v>
       </c>
-      <c r="C115" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
       <c r="B116" t="s">
         <v>144</v>
       </c>
-      <c r="C116" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>118</v>
       </c>
       <c r="B117" t="s">
         <v>144</v>
       </c>
-      <c r="C117" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>119</v>
       </c>
       <c r="B118" t="s">
         <v>144</v>
       </c>
-      <c r="C118" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>120</v>
       </c>
       <c r="B119" t="s">
         <v>144</v>
       </c>
-      <c r="C119" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
       <c r="B120" t="s">
         <v>144</v>
       </c>
-      <c r="C120" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>122</v>
       </c>
       <c r="B121" t="s">
         <v>144</v>
       </c>
-      <c r="C121" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>123</v>
       </c>
       <c r="B122" t="s">
         <v>144</v>
       </c>
-      <c r="C122" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
       <c r="B123" t="s">
         <v>144</v>
       </c>
-      <c r="C123" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
       <c r="B124" t="s">
         <v>144</v>
       </c>
-      <c r="C124" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
       <c r="B125" t="s">
         <v>144</v>
       </c>
-      <c r="C125" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>127</v>
       </c>
       <c r="B126" t="s">
         <v>144</v>
       </c>
-      <c r="C126" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
       <c r="B127" t="s">
         <v>144</v>
       </c>
-      <c r="C127" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>129</v>
       </c>
       <c r="B128" t="s">
         <v>144</v>
       </c>
-      <c r="C128" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
       <c r="B129" t="s">
         <v>144</v>
       </c>
-      <c r="C129" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>131</v>
       </c>
       <c r="B130" t="s">
         <v>144</v>
       </c>
-      <c r="C130" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>132</v>
       </c>
       <c r="B131" t="s">
         <v>144</v>
       </c>
-      <c r="C131" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
       <c r="B132" t="s">
         <v>144</v>
       </c>
-      <c r="C132" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
       <c r="B133" t="s">
         <v>144</v>
       </c>
-      <c r="C133" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
       <c r="B134" t="s">
         <v>144</v>
       </c>
-      <c r="C134" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>136</v>
       </c>
       <c r="B135" t="s">
         <v>144</v>
       </c>
-      <c r="C135" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>137</v>
       </c>
       <c r="B136" t="s">
         <v>144</v>
       </c>
-      <c r="C136" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>138</v>
       </c>
       <c r="B137" t="s">
         <v>144</v>
       </c>
-      <c r="C137" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>139</v>
       </c>
       <c r="B138" t="s">
         <v>144</v>
       </c>
-      <c r="C138" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>140</v>
       </c>
       <c r="B139" t="s">
         <v>144</v>
       </c>
-      <c r="C139" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
       <c r="B140" t="s">
         <v>144</v>
       </c>
-      <c r="C140" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
       <c r="B141" t="s">
         <v>144</v>
       </c>
-      <c r="C141" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>284</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Analyses/CAMspiracy/t1_segmentation/outputs/IDs_t2.xlsx
+++ b/Analyses/CAMspiracy/t1_segmentation/outputs/IDs_t2.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\livmats studies\Analyses\CAMspiracy\t1_segmentation\outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FA7DC1-079E-4899-B9B1-905902B00FD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -880,34 +872,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -922,336 +903,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:D141"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1262,1967 +929,1967 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>143</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>143</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>143</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>143</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>143</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>143</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>143</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>143</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>143</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>143</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>143</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>143</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>143</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>143</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>143</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>143</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>143</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>143</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>143</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>143</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>143</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>143</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>143</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>143</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>143</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>143</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>143</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>143</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>143</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D31" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>143</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>143</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>143</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>143</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D35" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>143</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D36" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>143</v>
       </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D37" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>143</v>
       </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D38" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>143</v>
       </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D39" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>143</v>
       </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>143</v>
       </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D41" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>143</v>
       </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D42" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>143</v>
       </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D43" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>143</v>
       </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>143</v>
       </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D45" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>143</v>
       </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D46" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>143</v>
       </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D47" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
       </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D48" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>143</v>
       </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D49" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>143</v>
       </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D50" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>143</v>
       </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D51" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>143</v>
       </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D52" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
         <v>143</v>
       </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D53" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>143</v>
       </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D54" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>143</v>
       </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D55" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="C56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D56" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>143</v>
       </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D57" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>143</v>
       </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D58" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
       </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="C59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D59" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>143</v>
       </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D60" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>143</v>
       </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D61" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>143</v>
       </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D62" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>143</v>
       </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="C63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D63" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
       </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="C64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D64" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>143</v>
       </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D65" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>143</v>
       </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="C66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D66" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>143</v>
       </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D67" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>143</v>
       </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D68" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>143</v>
       </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="C69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D69" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
         <v>143</v>
       </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="C70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D70" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
         <v>143</v>
       </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="C71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D71" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
         <v>144</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D72" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>144</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="C73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D73" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
         <v>144</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D74" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
         <v>144</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D75" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
         <v>144</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="C76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D76" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
         <v>144</v>
       </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="C77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D77" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>144</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="C78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D78" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
         <v>144</v>
       </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="C79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D79" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>144</v>
       </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="C80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D80" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>144</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D81" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>144</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="C82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D82" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>144</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D83" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>144</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="C84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D84" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>144</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="C85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D85" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>144</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="C86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D86" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
         <v>144</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="C87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D87" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>144</v>
       </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="C88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D88" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>144</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="C89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D89" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>144</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="C90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D90" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>144</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="C91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D91" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
         <v>144</v>
       </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="C92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D92" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93" t="s">
         <v>144</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="C93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D93" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
         <v>144</v>
       </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="C94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D94" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" t="s">
         <v>96</v>
       </c>
       <c r="B95" t="s">
         <v>144</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="C95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D95" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96" t="s">
         <v>144</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="C96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D96" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97" t="s">
         <v>144</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="C97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D97" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98" t="s">
         <v>144</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="C98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D98" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99" t="s">
         <v>144</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="C99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D99" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100" t="s">
         <v>144</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="C100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D100" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101" t="s">
         <v>144</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="C101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D101" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102" t="s">
         <v>144</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="C102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D102" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103" t="s">
         <v>144</v>
       </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="C103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D103" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104" t="s">
         <v>144</v>
       </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="C104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D104" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105" t="s">
         <v>144</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="C105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106" t="s">
         <v>144</v>
       </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="C106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" t="s">
         <v>108</v>
       </c>
       <c r="B107" t="s">
         <v>144</v>
       </c>
-      <c r="C107">
-        <v>3</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="C107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D107" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" t="s">
         <v>109</v>
       </c>
       <c r="B108" t="s">
         <v>144</v>
       </c>
-      <c r="C108">
-        <v>3</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="C108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D108" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" t="s">
         <v>110</v>
       </c>
       <c r="B109" t="s">
         <v>144</v>
       </c>
-      <c r="C109">
-        <v>3</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="C109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D109" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" t="s">
         <v>111</v>
       </c>
       <c r="B110" t="s">
         <v>144</v>
       </c>
-      <c r="C110">
-        <v>3</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="C110" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D110" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" t="s">
         <v>112</v>
       </c>
       <c r="B111" t="s">
         <v>144</v>
       </c>
-      <c r="C111">
-        <v>3</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="C111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" t="s">
         <v>113</v>
       </c>
       <c r="B112" t="s">
         <v>144</v>
       </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="C112" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D112" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" t="s">
         <v>114</v>
       </c>
       <c r="B113" t="s">
         <v>144</v>
       </c>
-      <c r="C113">
-        <v>3</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="C113" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D113" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" t="s">
         <v>115</v>
       </c>
       <c r="B114" t="s">
         <v>144</v>
       </c>
-      <c r="C114">
-        <v>3</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="C114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D114" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" t="s">
         <v>116</v>
       </c>
       <c r="B115" t="s">
         <v>144</v>
       </c>
-      <c r="C115">
-        <v>3</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="C115" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D115" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" t="s">
         <v>117</v>
       </c>
       <c r="B116" t="s">
         <v>144</v>
       </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="C116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D116" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" t="s">
         <v>118</v>
       </c>
       <c r="B117" t="s">
         <v>144</v>
       </c>
-      <c r="C117">
-        <v>3</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="C117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D117" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" t="s">
         <v>119</v>
       </c>
       <c r="B118" t="s">
         <v>144</v>
       </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D118" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" t="s">
         <v>120</v>
       </c>
       <c r="B119" t="s">
         <v>144</v>
       </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="C119" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D119" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" t="s">
         <v>121</v>
       </c>
       <c r="B120" t="s">
         <v>144</v>
       </c>
-      <c r="C120">
-        <v>3</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="C120" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D120" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" t="s">
         <v>122</v>
       </c>
       <c r="B121" t="s">
         <v>144</v>
       </c>
-      <c r="C121">
-        <v>3</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="C121" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D121" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" t="s">
         <v>123</v>
       </c>
       <c r="B122" t="s">
         <v>144</v>
       </c>
-      <c r="C122">
-        <v>3</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="C122" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D122" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" t="s">
         <v>124</v>
       </c>
       <c r="B123" t="s">
         <v>144</v>
       </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="C123" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D123" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" t="s">
         <v>125</v>
       </c>
       <c r="B124" t="s">
         <v>144</v>
       </c>
-      <c r="C124">
-        <v>3</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="C124" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D124" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" t="s">
         <v>126</v>
       </c>
       <c r="B125" t="s">
         <v>144</v>
       </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="C125" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D125" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" t="s">
         <v>127</v>
       </c>
       <c r="B126" t="s">
         <v>144</v>
       </c>
-      <c r="C126">
-        <v>3</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="C126" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D126" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" t="s">
         <v>128</v>
       </c>
       <c r="B127" t="s">
         <v>144</v>
       </c>
-      <c r="C127">
-        <v>3</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="C127" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D127" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" t="s">
         <v>129</v>
       </c>
       <c r="B128" t="s">
         <v>144</v>
       </c>
-      <c r="C128">
-        <v>3</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="C128" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D128" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" t="s">
         <v>130</v>
       </c>
       <c r="B129" t="s">
         <v>144</v>
       </c>
-      <c r="C129">
-        <v>3</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="C129" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D129" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" t="s">
         <v>131</v>
       </c>
       <c r="B130" t="s">
         <v>144</v>
       </c>
-      <c r="C130">
-        <v>3</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="C130" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D130" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>132</v>
       </c>
       <c r="B131" t="s">
         <v>144</v>
       </c>
-      <c r="C131">
-        <v>3</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="C131" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D131" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" t="s">
         <v>133</v>
       </c>
       <c r="B132" t="s">
         <v>144</v>
       </c>
-      <c r="C132">
-        <v>3</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C132" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D132" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" t="s">
         <v>134</v>
       </c>
       <c r="B133" t="s">
         <v>144</v>
       </c>
-      <c r="C133">
-        <v>3</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="C133" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D133" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" t="s">
         <v>135</v>
       </c>
       <c r="B134" t="s">
         <v>144</v>
       </c>
-      <c r="C134">
-        <v>3</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="C134" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D134" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" t="s">
         <v>136</v>
       </c>
       <c r="B135" t="s">
         <v>144</v>
       </c>
-      <c r="C135">
-        <v>3</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="C135" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D135" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" t="s">
         <v>137</v>
       </c>
       <c r="B136" t="s">
         <v>144</v>
       </c>
-      <c r="C136">
-        <v>3</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="C136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D136" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" t="s">
         <v>138</v>
       </c>
       <c r="B137" t="s">
         <v>144</v>
       </c>
-      <c r="C137">
-        <v>3</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="C137" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D137" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" t="s">
         <v>139</v>
       </c>
       <c r="B138" t="s">
         <v>144</v>
       </c>
-      <c r="C138">
-        <v>3</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="C138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D138" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" t="s">
         <v>140</v>
       </c>
       <c r="B139" t="s">
         <v>144</v>
       </c>
-      <c r="C139">
-        <v>3</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="C139" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D139" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" t="s">
         <v>141</v>
       </c>
       <c r="B140" t="s">
         <v>144</v>
       </c>
-      <c r="C140">
-        <v>3</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="C140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D140" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" t="s">
         <v>142</v>
       </c>
       <c r="B141" t="s">
         <v>144</v>
       </c>
-      <c r="C141">
-        <v>3</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="C141" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D141" t="s">
         <v>284</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>